--- a/Data.xlsx
+++ b/Data.xlsx
@@ -7,9 +7,9 @@
     <workbookView xWindow="240" yWindow="90" windowWidth="21075" windowHeight="10035"/>
   </bookViews>
   <sheets>
-    <sheet name="New Text Document - Copy" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -929,7 +929,7 @@
   <dimension ref="G5:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
